--- a/Documentation/ProposalContentStudentNameRev03.xlsx
+++ b/Documentation/ProposalContentStudentNameRev03.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8415"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8412"/>
   </bookViews>
   <sheets>
     <sheet name="DataEntry" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Submission Date</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Interactive Media Studies Program headed by David Neumann of Humber College</t>
   </si>
   <si>
-    <t>Raymond lastname, RJ lastname, and myself Richard Dip</t>
-  </si>
-  <si>
     <t>The problem we currently face is having a three-way connection with our mobile app, our database, and our hardware Lumi.</t>
   </si>
   <si>
@@ -86,20 +83,62 @@
     <t>IoT for NeoPixel Ring, Light Sensor, and Sound Sensor</t>
   </si>
   <si>
-    <t>Richard Dip, Raymond lastname, RJ lastname</t>
-  </si>
-  <si>
     <t>https://github.com/richarddip28/CENG355-Lumi</t>
   </si>
   <si>
     <t>NeoPixel Ring features 12 LED RGB colors, Sound detection Sensor Module with potentiometer allows for boolean detection of sound, Photosensitive photoresistor Sensor Module can detect luxes (measurement of light)</t>
+  </si>
+  <si>
+    <t>Richard Dip, Raymond Dang, RJ Cootauco</t>
+  </si>
+  <si>
+    <t>Raymond Dang, RJ Cootauco, and myself Richard Dip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our solution is to have the mobile app communicate with our server database first. Next our database will communicate with the Lumi hardware. The data being sent over will be instructions on what to do such as setting configuration, sound/light/neopixel test. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chunmei Zhu, Lianfang Tian, Xiangyang Li, Hongqiang Mo, Zeguang Zheng, "Recognition of cough using features improved by sub-band energy transformation", </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Biomedical Engineering and Informatics (BMEI) 2013 6th International Conference on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, pp. 251-255, 2013.</t>
+    </r>
+  </si>
+  <si>
+    <t>Automatic Detection System for Cough Sounds as a Symptom of Abnormal Health Condition. (n.d.). Retrieved February 05, 2018, from http://ieeexplore.ieee.org/document/4493483/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +150,21 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -137,7 +191,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -151,6 +205,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -493,17 +548,17 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="69.85546875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" width="19.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="69.88671875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -511,31 +566,31 @@
         <v>43136</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -543,7 +598,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -551,7 +606,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -559,7 +614,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -567,51 +622,60 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -632,12 +696,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="135" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="str">
         <f>DataEntry!A1</f>
         <v>Submission Date</v>
@@ -699,7 +763,7 @@
         <v>Solution description</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <f>DataEntry!B1</f>
         <v>43136</v>
@@ -710,7 +774,7 @@
       </c>
       <c r="C2" s="2" t="str">
         <f>DataEntry!B3</f>
-        <v>Richard Dip, Raymond lastname, RJ lastname</v>
+        <v>Richard Dip, Raymond Dang, RJ Cootauco</v>
       </c>
       <c r="D2" s="2" t="str">
         <f>DataEntry!B4</f>
@@ -734,7 +798,7 @@
       </c>
       <c r="I2" s="2" t="str">
         <f>DataEntry!B9</f>
-        <v>Raymond lastname, RJ lastname, and myself Richard Dip</v>
+        <v>Raymond Dang, RJ Cootauco, and myself Richard Dip</v>
       </c>
       <c r="J2" s="2" t="str">
         <f>DataEntry!B10</f>
@@ -744,21 +808,21 @@
         <f>DataEntry!B11</f>
         <v>The Lumi prototype was intended as a rudimentary baby monitoring system. In the absense of light or the detection of crying, Lumi's intention is to react with flashy lights which would expectedly calm the baby to a docile state.</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="2" t="str">
         <f>DataEntry!B12</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="2">
+        <v>Automatic Detection System for Cough Sounds as a Symptom of Abnormal Health Condition. (n.d.). Retrieved February 05, 2018, from http://ieeexplore.ieee.org/document/4493483/</v>
+      </c>
+      <c r="M2" s="2" t="str">
         <f>DataEntry!B13</f>
-        <v>0</v>
+        <v>Chunmei Zhu, Lianfang Tian, Xiangyang Li, Hongqiang Mo, Zeguang Zheng, "Recognition of cough using features improved by sub-band energy transformation", Biomedical Engineering and Informatics (BMEI) 2013 6th International Conference on, pp. 251-255, 2013.</v>
       </c>
       <c r="N2" s="2" t="str">
         <f>DataEntry!B14</f>
         <v>NeoPixel Ring features 12 LED RGB colors, Sound detection Sensor Module with potentiometer allows for boolean detection of sound, Photosensitive photoresistor Sensor Module can detect luxes (measurement of light)</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="2" t="str">
         <f>DataEntry!B15</f>
-        <v>0</v>
+        <v xml:space="preserve">Our solution is to have the mobile app communicate with our server database first. Next our database will communicate with the Lumi hardware. The data being sent over will be instructions on what to do such as setting configuration, sound/light/neopixel test. </v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/ProposalContentStudentNameRev03.xlsx
+++ b/Documentation/ProposalContentStudentNameRev03.xlsx
@@ -131,7 +131,7 @@
     </r>
   </si>
   <si>
-    <t>Automatic Detection System for Cough Sounds as a Symptom of Abnormal Health Condition. (n.d.). Retrieved February 05, 2018, from http://ieeexplore.ieee.org/document/4493483/</t>
+    <t>S. H. Shin, T. Hashimoto and S. Hatano, "Automatic Detection System for Cough Sounds as a Symptom of Abnormal Health Condition," in IEEE Transactions on Information Technology in Biomedicine, vol. 13, no. 4, pp. 486-493, July 2009.</t>
   </si>
 </sst>
 </file>
@@ -548,7 +548,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -810,7 +810,7 @@
       </c>
       <c r="L2" s="2" t="str">
         <f>DataEntry!B12</f>
-        <v>Automatic Detection System for Cough Sounds as a Symptom of Abnormal Health Condition. (n.d.). Retrieved February 05, 2018, from http://ieeexplore.ieee.org/document/4493483/</v>
+        <v>S. H. Shin, T. Hashimoto and S. Hatano, "Automatic Detection System for Cough Sounds as a Symptom of Abnormal Health Condition," in IEEE Transactions on Information Technology in Biomedicine, vol. 13, no. 4, pp. 486-493, July 2009.</v>
       </c>
       <c r="M2" s="2" t="str">
         <f>DataEntry!B13</f>

--- a/Documentation/ProposalContentStudentNameRev03.xlsx
+++ b/Documentation/ProposalContentStudentNameRev03.xlsx
@@ -548,7 +548,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
